--- a/Organisatie/Copy of GP-urenplanning en -verantwoording 2018 (2).xlsx
+++ b/Organisatie/Copy of GP-urenplanning en -verantwoording 2018 (2).xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niels\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\Marc\Schoolmappen\HBO-ICT 17-18\Portfolio\GP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8769819-8DA3-4033-B7B4-804CF2C39436}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13935" windowHeight="9615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -193,12 +192,36 @@
   </si>
   <si>
     <t>Paper opbouw</t>
+  </si>
+  <si>
+    <t>Calibratie</t>
+  </si>
+  <si>
+    <t>IP Adres notatie</t>
+  </si>
+  <si>
+    <t>Commentaar toevoegen aan code</t>
+  </si>
+  <si>
+    <t>Planning bijwerken</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Presentatie</t>
+  </si>
+  <si>
+    <t>Robot designen</t>
+  </si>
+  <si>
+    <t>Fine tuning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -331,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -477,6 +500,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,9 +518,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -510,9 +542,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -550,7 +582,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -585,23 +617,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -637,26 +652,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -829,33 +827,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="40.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="1" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="47"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -867,7 +865,7 @@
       </c>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
@@ -883,34 +881,34 @@
       <c r="P2" s="43"/>
       <c r="Q2" s="43"/>
     </row>
-    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="59" t="s">
+    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="61" t="s">
+      <c r="I3" s="63"/>
+      <c r="J3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="63" t="s">
+      <c r="K3" s="62"/>
+      <c r="L3" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="63"/>
+      <c r="M3" s="64"/>
       <c r="N3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="43"/>
       <c r="Q3" s="43"/>
     </row>
-    <row r="4" spans="1:17" s="5" customFormat="1" ht="44.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
@@ -959,7 +957,7 @@
       <c r="P4" s="43"/>
       <c r="Q4" s="43"/>
     </row>
-    <row r="5" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40">
         <v>1</v>
       </c>
@@ -987,7 +985,7 @@
       <c r="P5" s="48"/>
       <c r="Q5" s="43"/>
     </row>
-    <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1015,7 +1013,7 @@
       <c r="P6" s="48"/>
       <c r="Q6" s="43"/>
     </row>
-    <row r="7" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1043,7 +1041,7 @@
       <c r="P7" s="43"/>
       <c r="Q7" s="43"/>
     </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52">
         <v>1</v>
       </c>
@@ -1091,7 +1089,7 @@
       <c r="P8" s="43"/>
       <c r="Q8" s="43"/>
     </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="53">
         <v>1</v>
       </c>
@@ -1129,7 +1127,7 @@
       <c r="P9" s="43"/>
       <c r="Q9" s="43"/>
     </row>
-    <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>1</v>
       </c>
@@ -1161,7 +1159,7 @@
       <c r="P10" s="43"/>
       <c r="Q10" s="43"/>
     </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>1</v>
       </c>
@@ -1197,7 +1195,7 @@
       <c r="P11" s="43"/>
       <c r="Q11" s="43"/>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="52">
         <v>1</v>
       </c>
@@ -1208,7 +1206,9 @@
         <v>40</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="13">
@@ -1231,13 +1231,13 @@
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" s="42"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
     </row>
-    <row r="13" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="57">
         <v>1</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="P13" s="43"/>
       <c r="Q13" s="43"/>
     </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="52">
         <v>1</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="P14" s="43"/>
       <c r="Q14" s="43"/>
     </row>
-    <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53">
         <v>1</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="P15" s="43"/>
       <c r="Q15" s="43"/>
     </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="53">
         <v>1</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="P16" s="43"/>
       <c r="Q16" s="43"/>
     </row>
-    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="53">
         <v>1</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
     </row>
-    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53">
         <v>1</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="P18" s="43"/>
       <c r="Q18" s="43"/>
     </row>
-    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="53">
         <v>1</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="P19" s="43"/>
       <c r="Q19" s="43"/>
     </row>
-    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53">
         <v>1</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
     </row>
-    <row r="21" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="53">
         <v>1</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="P21" s="43"/>
       <c r="Q21" s="43"/>
     </row>
-    <row r="22" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22" s="31"/>
       <c r="C22" s="35" t="s">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E22" s="32">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="32">
         <f t="shared" si="1"/>
@@ -1579,20 +1579,20 @@
       </c>
       <c r="N22" s="32">
         <f>SUM(N5:RN21)</f>
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="O22" s="33"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
     </row>
-    <row r="23" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54">
         <v>2</v>
       </c>
       <c r="B23" s="55">
         <v>43192</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="66" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="16"/>
@@ -1613,15 +1613,15 @@
       <c r="P23" s="48"/>
       <c r="Q23" s="43"/>
     </row>
-    <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
-        <v>2</v>
-      </c>
-      <c r="B24" s="55">
+    <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59">
+        <v>3</v>
+      </c>
+      <c r="B24" s="65">
         <v>43193</v>
       </c>
-      <c r="C24" s="56" t="s">
-        <v>20</v>
+      <c r="C24" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -1632,64 +1632,46 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
+      <c r="M24" s="45">
+        <v>5</v>
+      </c>
       <c r="N24" s="4">
         <f>E24+G24+I24+K24+M24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O24" s="51"/>
       <c r="P24" s="48"/>
       <c r="Q24" s="43"/>
     </row>
-    <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54">
         <v>2</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="55">
         <v>43193</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="L25" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="M25" s="45">
-        <v>0.5</v>
-      </c>
+      <c r="C25" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="4">
-        <f t="shared" ref="N25:N49" si="2">E25+G25+I25+K25+M25</f>
-        <v>2.5</v>
-      </c>
-      <c r="O25" s="42"/>
+        <f>E25+G25+I25+K25+M25</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="51"/>
       <c r="P25" s="43"/>
       <c r="Q25" s="43"/>
     </row>
-    <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54">
         <v>2</v>
       </c>
@@ -1697,35 +1679,47 @@
         <v>43193</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.5</v>
+      </c>
       <c r="F26" s="8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="8">
-        <v>4</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0.5</v>
+      </c>
       <c r="J26" s="8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K26" s="8">
-        <v>4</v>
-      </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="M26" s="45">
+        <v>0.5</v>
+      </c>
       <c r="N26" s="4">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" ref="N26:N50" si="2">E26+G26+I26+K26+M26</f>
+        <v>2.5</v>
       </c>
       <c r="O26" s="42"/>
       <c r="P26" s="43"/>
       <c r="Q26" s="43"/>
     </row>
-    <row r="27" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54">
         <v>2</v>
       </c>
@@ -1733,7 +1727,7 @@
         <v>43193</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -1741,205 +1735,201 @@
         <v>2</v>
       </c>
       <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="13">
-        <v>2</v>
-      </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
       <c r="J27" s="8">
         <v>2</v>
       </c>
       <c r="K27" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27" s="45"/>
       <c r="M27" s="45"/>
       <c r="N27" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O27" s="42"/>
       <c r="P27" s="43"/>
       <c r="Q27" s="43"/>
     </row>
-    <row r="28" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58">
+    <row r="28" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="54">
         <v>2</v>
       </c>
       <c r="B28" s="39">
         <v>43193</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="F28" s="8">
+        <v>2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
       <c r="H28" s="13">
         <v>2</v>
       </c>
       <c r="I28" s="13">
-        <v>1</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
+        <v>2</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
       <c r="L28" s="45"/>
       <c r="M28" s="45"/>
       <c r="N28" s="4">
-        <f>E28+G28+I28+K28+M28</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O28" s="42"/>
       <c r="P28" s="43"/>
       <c r="Q28" s="43"/>
     </row>
-    <row r="29" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54">
+    <row r="29" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="58">
         <v>2</v>
       </c>
       <c r="B29" s="39">
         <v>43193</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="16">
-        <v>2</v>
-      </c>
-      <c r="E29" s="16">
-        <v>1</v>
-      </c>
+      <c r="C29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="13"/>
+      <c r="H29" s="13">
+        <v>2</v>
+      </c>
       <c r="I29" s="13">
         <v>1</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="45">
-        <v>4</v>
-      </c>
-      <c r="M29" s="45">
-        <v>2</v>
-      </c>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
       <c r="N29" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>E29+G29+I29+K29+M29</f>
+        <v>1</v>
       </c>
       <c r="O29" s="42"/>
       <c r="P29" s="43"/>
       <c r="Q29" s="43"/>
     </row>
-    <row r="30" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58">
+    <row r="30" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="54">
         <v>2</v>
       </c>
       <c r="B30" s="39">
         <v>43193</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D30" s="16">
         <v>2</v>
       </c>
       <c r="E30" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="I30" s="13">
+        <v>1</v>
+      </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30" s="45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30" s="4">
-        <f>E30+G30+I30+K30+M30</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="O30" s="42"/>
       <c r="P30" s="43"/>
       <c r="Q30" s="43"/>
     </row>
-    <row r="31" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54">
-        <v>2</v>
-      </c>
-      <c r="B31" s="55">
-        <v>43194</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+    <row r="31" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="58">
+        <v>2</v>
+      </c>
+      <c r="B31" s="39">
+        <v>43193</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="16">
+        <v>2</v>
+      </c>
+      <c r="E31" s="16">
+        <v>2</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
+      <c r="L31" s="45">
+        <v>2</v>
+      </c>
+      <c r="M31" s="45">
+        <v>0</v>
+      </c>
       <c r="N31" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>E31+G31+I31+K31+M31</f>
+        <v>2</v>
       </c>
       <c r="O31" s="42"/>
       <c r="P31" s="43"/>
       <c r="Q31" s="43"/>
     </row>
-    <row r="32" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54">
         <v>2</v>
       </c>
-      <c r="B32" s="39">
+      <c r="B32" s="55">
         <v>43194</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>54</v>
+      <c r="C32" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="8">
-        <v>4</v>
-      </c>
-      <c r="G32" s="8">
-        <v>4</v>
-      </c>
-      <c r="H32" s="13">
-        <v>2</v>
-      </c>
-      <c r="I32" s="13">
-        <v>2</v>
-      </c>
-      <c r="J32" s="8">
-        <v>4</v>
-      </c>
-      <c r="K32" s="8">
-        <v>4</v>
-      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
       <c r="L32" s="45"/>
       <c r="M32" s="45"/>
       <c r="N32" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O32" s="42"/>
       <c r="P32" s="43"/>
       <c r="Q32" s="43"/>
     </row>
-    <row r="33" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54">
         <v>2</v>
       </c>
@@ -1947,39 +1937,39 @@
         <v>43194</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="16">
+        <v>54</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="8">
         <v>4</v>
       </c>
-      <c r="E33" s="16">
-        <v>3</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="8">
+        <v>4</v>
+      </c>
       <c r="H33" s="13">
         <v>2</v>
       </c>
       <c r="I33" s="13">
-        <v>1</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="45">
+        <v>2</v>
+      </c>
+      <c r="J33" s="8">
         <v>4</v>
       </c>
-      <c r="M33" s="45">
-        <v>0</v>
-      </c>
+      <c r="K33" s="8">
+        <v>4</v>
+      </c>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
       <c r="N33" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O33" s="42"/>
       <c r="P33" s="43"/>
       <c r="Q33" s="43"/>
     </row>
-    <row r="34" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54">
         <v>2</v>
       </c>
@@ -1987,33 +1977,39 @@
         <v>43194</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="D34" s="16">
+        <v>4</v>
+      </c>
+      <c r="E34" s="16">
+        <v>3</v>
+      </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="13">
         <v>2</v>
       </c>
       <c r="I34" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="45"/>
+      <c r="L34" s="45">
+        <v>4</v>
+      </c>
       <c r="M34" s="45">
         <v>1</v>
       </c>
       <c r="N34" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O34" s="42"/>
       <c r="P34" s="43"/>
       <c r="Q34" s="43"/>
     </row>
-    <row r="35" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54">
         <v>2</v>
       </c>
@@ -2021,38 +2017,46 @@
         <v>43194</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="H35" s="13">
+        <v>2</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0</v>
+      </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="45"/>
       <c r="M35" s="45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N35" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O35" s="42"/>
       <c r="P35" s="43"/>
       <c r="Q35" s="43"/>
     </row>
-    <row r="36" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54">
         <v>2</v>
       </c>
       <c r="B36" s="39">
         <v>43194</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="16">
+        <v>1</v>
+      </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="13"/>
@@ -2060,25 +2064,25 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
+      <c r="M36" s="45">
+        <v>2</v>
+      </c>
       <c r="N36" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36" s="42"/>
       <c r="P36" s="43"/>
       <c r="Q36" s="43"/>
     </row>
-    <row r="37" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54">
         <v>2</v>
       </c>
-      <c r="B37" s="55">
-        <v>43195</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>23</v>
-      </c>
+      <c r="B37" s="39">
+        <v>43194</v>
+      </c>
+      <c r="C37" s="11"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="8"/>
@@ -2097,29 +2101,23 @@
       <c r="P37" s="43"/>
       <c r="Q37" s="43"/>
     </row>
-    <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54">
         <v>2</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="55">
         <v>43195</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>49</v>
+      <c r="C38" s="56" t="s">
+        <v>23</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="8">
-        <v>4</v>
-      </c>
+      <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="13">
-        <v>2</v>
-      </c>
+      <c r="H38" s="13"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="8">
-        <v>4</v>
-      </c>
+      <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="45"/>
       <c r="M38" s="45"/>
@@ -2131,7 +2129,7 @@
       <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
     </row>
-    <row r="39" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54">
         <v>2</v>
       </c>
@@ -2139,33 +2137,41 @@
         <v>43195</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="16">
-        <v>2</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16">
+        <v>2</v>
+      </c>
+      <c r="F39" s="8">
+        <v>2</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1.5</v>
+      </c>
       <c r="H39" s="13">
         <v>2</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="45">
-        <v>2</v>
-      </c>
+      <c r="I39" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="J39" s="8">
+        <v>4</v>
+      </c>
+      <c r="K39" s="8">
+        <v>4</v>
+      </c>
+      <c r="L39" s="45"/>
       <c r="M39" s="45"/>
       <c r="N39" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O39" s="42"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
     </row>
-    <row r="40" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54">
         <v>2</v>
       </c>
@@ -2173,39 +2179,53 @@
         <v>43195</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D40" s="16">
         <v>2</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="16">
+        <v>2</v>
+      </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="H40" s="13">
+        <v>2</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0</v>
+      </c>
       <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="K40" s="8">
+        <v>0.5</v>
+      </c>
       <c r="L40" s="45">
         <v>2</v>
       </c>
-      <c r="M40" s="45"/>
+      <c r="M40" s="45">
+        <v>2</v>
+      </c>
       <c r="N40" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O40" s="42"/>
       <c r="P40" s="43"/>
       <c r="Q40" s="43"/>
     </row>
-    <row r="41" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54">
         <v>2</v>
       </c>
       <c r="B41" s="39">
         <v>43195</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="16"/>
+      <c r="C41" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="16">
+        <v>2</v>
+      </c>
       <c r="E41" s="16"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2213,43 +2233,55 @@
       <c r="I41" s="13"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
+      <c r="L41" s="45">
+        <v>2</v>
+      </c>
+      <c r="M41" s="45">
+        <v>1</v>
+      </c>
       <c r="N41" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="42"/>
       <c r="P41" s="43"/>
       <c r="Q41" s="43"/>
     </row>
-    <row r="42" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="54">
         <v>2</v>
       </c>
       <c r="B42" s="39">
         <v>43195</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="F42" s="8">
+        <v>2</v>
+      </c>
+      <c r="G42" s="8">
+        <v>3</v>
+      </c>
       <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="I42" s="13">
+        <v>2.5</v>
+      </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="45"/>
       <c r="M42" s="45"/>
       <c r="N42" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O42" s="42"/>
       <c r="P42" s="43"/>
       <c r="Q42" s="43"/>
     </row>
-    <row r="43" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="54">
         <v>2</v>
       </c>
@@ -2275,16 +2307,14 @@
       <c r="P43" s="43"/>
       <c r="Q43" s="43"/>
     </row>
-    <row r="44" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54">
         <v>2</v>
       </c>
-      <c r="B44" s="55">
-        <v>43196</v>
-      </c>
-      <c r="C44" s="56" t="s">
-        <v>24</v>
-      </c>
+      <c r="B44" s="39">
+        <v>43195</v>
+      </c>
+      <c r="C44" s="10"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="8"/>
@@ -2303,14 +2333,16 @@
       <c r="P44" s="43"/>
       <c r="Q44" s="43"/>
     </row>
-    <row r="45" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="54">
         <v>2</v>
       </c>
-      <c r="B45" s="39">
+      <c r="B45" s="55">
         <v>43196</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="8"/>
@@ -2329,16 +2361,20 @@
       <c r="P45" s="43"/>
       <c r="Q45" s="43"/>
     </row>
-    <row r="46" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="54">
         <v>2</v>
       </c>
       <c r="B46" s="39">
         <v>43196</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="E46" s="16">
+        <v>0.5</v>
+      </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="13"/>
@@ -2346,220 +2382,260 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
+      <c r="M46" s="45">
+        <v>0.5</v>
+      </c>
       <c r="N46" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="42"/>
       <c r="P46" s="43"/>
       <c r="Q46" s="43"/>
     </row>
-    <row r="47" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="54">
         <v>2</v>
       </c>
       <c r="B47" s="39">
         <v>43196</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
+      <c r="F47" s="8">
+        <v>1</v>
+      </c>
+      <c r="G47" s="8">
+        <v>1.5</v>
+      </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="J47" s="8">
+        <v>1</v>
+      </c>
+      <c r="K47" s="8">
+        <v>1.5</v>
+      </c>
       <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
+      <c r="M47" s="45">
+        <v>1</v>
+      </c>
       <c r="N47" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O47" s="42"/>
       <c r="P47" s="43"/>
       <c r="Q47" s="43"/>
     </row>
-    <row r="48" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="54">
         <v>2</v>
       </c>
       <c r="B48" s="39">
         <v>43196</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
+      <c r="F48" s="8">
+        <v>2</v>
+      </c>
+      <c r="G48" s="8">
+        <v>4</v>
+      </c>
       <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+      <c r="I48" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="J48" s="8">
+        <v>4</v>
+      </c>
+      <c r="K48" s="8">
+        <v>4</v>
+      </c>
       <c r="L48" s="45"/>
       <c r="M48" s="45"/>
       <c r="N48" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="O48" s="42"/>
       <c r="P48" s="43"/>
       <c r="Q48" s="43"/>
     </row>
-    <row r="49" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54">
         <v>2</v>
       </c>
       <c r="B49" s="39">
         <v>43196</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
+      <c r="C49" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="16">
+        <v>2</v>
+      </c>
+      <c r="E49" s="16">
+        <v>2</v>
+      </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
+      <c r="I49" s="13">
+        <v>1.5</v>
+      </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
+      <c r="L49" s="45">
+        <v>2</v>
+      </c>
+      <c r="M49" s="45">
+        <v>2</v>
+      </c>
       <c r="N49" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O49" s="42"/>
       <c r="P49" s="43"/>
       <c r="Q49" s="43"/>
     </row>
-    <row r="50" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54">
         <v>2</v>
       </c>
       <c r="B50" s="39">
         <v>43196</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="M50" s="46"/>
+      <c r="C50" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16">
+        <v>4</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
       <c r="N50" s="4">
-        <f t="shared" ref="N50" si="3">E50+G50+I50+K50+M50</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="O50" s="42"/>
       <c r="P50" s="43"/>
       <c r="Q50" s="43"/>
     </row>
-    <row r="51" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="32">
-        <f t="shared" ref="D51:N51" si="4">SUM(D23:D50)</f>
-        <v>12.5</v>
-      </c>
-      <c r="E51" s="32">
-        <f t="shared" si="4"/>
-        <v>4.5</v>
-      </c>
-      <c r="F51" s="32">
-        <f t="shared" si="4"/>
-        <v>12.5</v>
-      </c>
-      <c r="G51" s="32">
-        <f t="shared" si="4"/>
-        <v>8.5</v>
-      </c>
-      <c r="H51" s="32">
-        <f t="shared" si="4"/>
-        <v>14.5</v>
-      </c>
-      <c r="I51" s="32">
-        <f t="shared" si="4"/>
-        <v>5.5</v>
-      </c>
-      <c r="J51" s="32">
-        <f t="shared" si="4"/>
-        <v>12.5</v>
-      </c>
-      <c r="K51" s="32">
-        <f t="shared" si="4"/>
-        <v>8.5</v>
-      </c>
-      <c r="L51" s="32">
-        <f t="shared" si="4"/>
-        <v>14.5</v>
-      </c>
-      <c r="M51" s="32">
-        <f t="shared" si="4"/>
-        <v>5.5</v>
-      </c>
-      <c r="N51" s="32">
-        <f t="shared" si="4"/>
-        <v>32.5</v>
-      </c>
-      <c r="O51" s="33"/>
+    <row r="51" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="54">
+        <v>2</v>
+      </c>
+      <c r="B51" s="39">
+        <v>43196</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" s="46"/>
+      <c r="N51" s="4">
+        <f t="shared" ref="N51" si="3">E51+G51+I51+K51+M51</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="42"/>
       <c r="P51" s="49"/>
       <c r="Q51" s="49"/>
     </row>
-    <row r="52" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54">
-        <v>3</v>
-      </c>
-      <c r="B52" s="55">
-        <v>43199</v>
-      </c>
-      <c r="C52" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="4">
-        <f>E52+G52+I52+K52+M52</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="51"/>
+    <row r="52" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="32">
+        <f>SUM(D23:D51)</f>
+        <v>14.5</v>
+      </c>
+      <c r="E52" s="32">
+        <f>SUM(E23:E51)</f>
+        <v>19</v>
+      </c>
+      <c r="F52" s="32">
+        <f>SUM(F23:F51)</f>
+        <v>15.5</v>
+      </c>
+      <c r="G52" s="32">
+        <f>SUM(G23:G51)</f>
+        <v>18.5</v>
+      </c>
+      <c r="H52" s="32">
+        <f>SUM(H23:H51)</f>
+        <v>14.5</v>
+      </c>
+      <c r="I52" s="32">
+        <f>SUM(I23:I51)</f>
+        <v>12.5</v>
+      </c>
+      <c r="J52" s="32">
+        <f>SUM(J23:J51)</f>
+        <v>17.5</v>
+      </c>
+      <c r="K52" s="32">
+        <f>SUM(K23:K51)</f>
+        <v>18.5</v>
+      </c>
+      <c r="L52" s="32">
+        <f>SUM(L23:L51)</f>
+        <v>16.5</v>
+      </c>
+      <c r="M52" s="32">
+        <f>SUM(M23:M51)</f>
+        <v>19.5</v>
+      </c>
+      <c r="N52" s="32">
+        <f>SUM(N23:N51)</f>
+        <v>88</v>
+      </c>
+      <c r="O52" s="33"/>
       <c r="P52" s="48"/>
       <c r="Q52" s="43"/>
     </row>
-    <row r="53" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="54">
         <v>3</v>
       </c>
-      <c r="B53" s="39">
+      <c r="B53" s="55">
         <v>43199</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>30</v>
+      <c r="C53" s="56" t="s">
+        <v>25</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -2579,68 +2655,106 @@
       <c r="P53" s="48"/>
       <c r="Q53" s="43"/>
     </row>
-    <row r="54" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="54">
         <v>3</v>
       </c>
       <c r="B54" s="39">
         <v>43199</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
+      <c r="C54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="16">
+        <v>1</v>
+      </c>
+      <c r="E54" s="16">
+        <v>1</v>
+      </c>
+      <c r="F54" s="8">
+        <v>1</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" s="13">
+        <v>1</v>
+      </c>
+      <c r="I54" s="13">
+        <v>1</v>
+      </c>
+      <c r="J54" s="8">
+        <v>1</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1</v>
+      </c>
+      <c r="L54" s="45">
+        <v>1</v>
+      </c>
+      <c r="M54" s="45">
+        <v>1</v>
+      </c>
       <c r="N54" s="4">
-        <f t="shared" ref="N54:N77" si="5">E54+G54+I54+K54+M54</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="42"/>
+        <f>E54+G54+I54+K54+M54</f>
+        <v>5</v>
+      </c>
+      <c r="O54" s="51"/>
       <c r="P54" s="43"/>
       <c r="Q54" s="43"/>
     </row>
-    <row r="55" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="54">
         <v>3</v>
       </c>
       <c r="B55" s="39">
         <v>43199</v>
       </c>
-      <c r="C55" s="11"/>
+      <c r="C55" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+      <c r="H55" s="13">
+        <v>4</v>
+      </c>
+      <c r="I55" s="13">
+        <v>4</v>
+      </c>
+      <c r="J55" s="8">
+        <v>4</v>
+      </c>
+      <c r="K55" s="8">
+        <v>6</v>
+      </c>
       <c r="L55" s="45"/>
       <c r="M55" s="45"/>
       <c r="N55" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="N55" si="4">E55+G55+I55+K55+M55</f>
+        <v>10</v>
       </c>
       <c r="O55" s="42"/>
       <c r="P55" s="43"/>
       <c r="Q55" s="43"/>
     </row>
-    <row r="56" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="54">
         <v>3</v>
       </c>
       <c r="B56" s="39">
         <v>43199</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
+      <c r="C56" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="16">
+        <v>2</v>
+      </c>
+      <c r="E56" s="16">
+        <v>2</v>
+      </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="13"/>
@@ -2650,27 +2764,31 @@
       <c r="L56" s="45"/>
       <c r="M56" s="45"/>
       <c r="N56" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="N56:N81" si="5">E56+G56+I56+K56+M56</f>
+        <v>2</v>
       </c>
       <c r="O56" s="42"/>
       <c r="P56" s="43"/>
       <c r="Q56" s="43"/>
     </row>
-    <row r="57" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54">
-        <v>3</v>
-      </c>
-      <c r="B57" s="55">
-        <v>43200</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>26</v>
+    <row r="57" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="59">
+        <v>3</v>
+      </c>
+      <c r="B57" s="39">
+        <v>43199</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="F57" s="8">
+        <v>2</v>
+      </c>
+      <c r="G57" s="8">
+        <v>2</v>
+      </c>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="8"/>
@@ -2678,47 +2796,57 @@
       <c r="L57" s="45"/>
       <c r="M57" s="45"/>
       <c r="N57" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>M57+K57+I57+E57+G57</f>
+        <v>2</v>
       </c>
       <c r="O57" s="42"/>
       <c r="P57" s="43"/>
       <c r="Q57" s="43"/>
     </row>
-    <row r="58" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54">
         <v>3</v>
       </c>
       <c r="B58" s="39">
-        <v>43200</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
+        <v>43199</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="16">
+        <v>2</v>
+      </c>
+      <c r="E58" s="16">
+        <v>2</v>
+      </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
+      <c r="K58" s="8">
+        <v>2</v>
+      </c>
       <c r="L58" s="45"/>
       <c r="M58" s="45"/>
       <c r="N58" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O58" s="42"/>
       <c r="P58" s="43"/>
       <c r="Q58" s="43"/>
     </row>
-    <row r="59" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54">
         <v>3</v>
       </c>
-      <c r="B59" s="39">
+      <c r="B59" s="55">
         <v>43200</v>
       </c>
-      <c r="C59" s="11"/>
+      <c r="C59" s="56" t="s">
+        <v>26</v>
+      </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="8"/>
@@ -2737,68 +2865,104 @@
       <c r="P59" s="43"/>
       <c r="Q59" s="43"/>
     </row>
-    <row r="60" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54">
         <v>3</v>
       </c>
       <c r="B60" s="39">
         <v>43200</v>
       </c>
-      <c r="C60" s="11"/>
+      <c r="C60" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
+      <c r="G60" s="8">
+        <v>2</v>
+      </c>
+      <c r="H60" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="I60" s="13">
+        <v>3</v>
+      </c>
+      <c r="J60" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="K60" s="8">
+        <v>3</v>
+      </c>
       <c r="L60" s="45"/>
       <c r="M60" s="45"/>
       <c r="N60" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>E60+G60+I60+K60+M60</f>
+        <v>8</v>
       </c>
       <c r="O60" s="42"/>
       <c r="P60" s="43"/>
       <c r="Q60" s="43"/>
     </row>
-    <row r="61" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54">
         <v>3</v>
       </c>
       <c r="B61" s="39">
         <v>43200</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
+      <c r="C61" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="16">
+        <v>2</v>
+      </c>
+      <c r="E61" s="16">
+        <v>2</v>
+      </c>
+      <c r="F61" s="8">
+        <v>2</v>
+      </c>
+      <c r="G61" s="8">
+        <v>2</v>
+      </c>
+      <c r="H61" s="13">
+        <v>2</v>
+      </c>
+      <c r="I61" s="13">
+        <v>2</v>
+      </c>
+      <c r="J61" s="8">
+        <v>3</v>
+      </c>
+      <c r="K61" s="8">
+        <v>3</v>
+      </c>
       <c r="L61" s="45"/>
       <c r="M61" s="45"/>
       <c r="N61" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O61" s="42"/>
       <c r="P61" s="43"/>
       <c r="Q61" s="43"/>
     </row>
-    <row r="62" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="54">
         <v>3</v>
       </c>
       <c r="B62" s="39">
         <v>43200</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
+      <c r="C62" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="16">
+        <v>2</v>
+      </c>
+      <c r="E62" s="16">
+        <v>1.5</v>
+      </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="13"/>
@@ -2809,22 +2973,20 @@
       <c r="M62" s="45"/>
       <c r="N62" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O62" s="42"/>
       <c r="P62" s="43"/>
       <c r="Q62" s="43"/>
     </row>
-    <row r="63" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="54">
         <v>3</v>
       </c>
-      <c r="B63" s="55">
-        <v>43201</v>
-      </c>
-      <c r="C63" s="56" t="s">
-        <v>27</v>
-      </c>
+      <c r="B63" s="39">
+        <v>43200</v>
+      </c>
+      <c r="C63" s="11"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="8"/>
@@ -2843,12 +3005,12 @@
       <c r="P63" s="43"/>
       <c r="Q63" s="43"/>
     </row>
-    <row r="64" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="54">
         <v>3</v>
       </c>
       <c r="B64" s="39">
-        <v>43201</v>
+        <v>43200</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="16"/>
@@ -2869,14 +3031,16 @@
       <c r="P64" s="43"/>
       <c r="Q64" s="43"/>
     </row>
-    <row r="65" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="54">
         <v>3</v>
       </c>
-      <c r="B65" s="39">
+      <c r="B65" s="55">
         <v>43201</v>
       </c>
-      <c r="C65" s="11"/>
+      <c r="C65" s="56" t="s">
+        <v>27</v>
+      </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="8"/>
@@ -2895,14 +3059,16 @@
       <c r="P65" s="43"/>
       <c r="Q65" s="43"/>
     </row>
-    <row r="66" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="54">
         <v>3</v>
       </c>
       <c r="B66" s="39">
         <v>43201</v>
       </c>
-      <c r="C66" s="11"/>
+      <c r="C66" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="8"/>
@@ -2911,29 +3077,39 @@
       <c r="I66" s="13"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
-      <c r="L66" s="45"/>
-      <c r="M66" s="45"/>
+      <c r="L66" s="45">
+        <v>1</v>
+      </c>
+      <c r="M66" s="45">
+        <v>2</v>
+      </c>
       <c r="N66" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O66" s="42"/>
       <c r="P66" s="43"/>
       <c r="Q66" s="43"/>
     </row>
-    <row r="67" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="54">
         <v>3</v>
       </c>
       <c r="B67" s="39">
         <v>43201</v>
       </c>
-      <c r="C67" s="11"/>
+      <c r="C67" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
-      <c r="F67" s="8"/>
+      <c r="F67" s="8">
+        <v>4</v>
+      </c>
       <c r="G67" s="8"/>
-      <c r="H67" s="13"/>
+      <c r="H67" s="13">
+        <v>1</v>
+      </c>
       <c r="I67" s="13"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -2947,14 +3123,16 @@
       <c r="P67" s="43"/>
       <c r="Q67" s="43"/>
     </row>
-    <row r="68" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="54">
         <v>3</v>
       </c>
       <c r="B68" s="39">
         <v>43201</v>
       </c>
-      <c r="C68" s="10"/>
+      <c r="C68" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="8"/>
@@ -2973,20 +3151,24 @@
       <c r="P68" s="43"/>
       <c r="Q68" s="43"/>
     </row>
-    <row r="69" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="54">
         <v>3</v>
       </c>
-      <c r="B69" s="55">
-        <v>43202</v>
-      </c>
-      <c r="C69" s="56" t="s">
-        <v>28</v>
+      <c r="B69" s="39">
+        <v>43201</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="F69" s="8">
+        <v>1</v>
+      </c>
+      <c r="G69" s="8">
+        <v>1</v>
+      </c>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
       <c r="J69" s="8"/>
@@ -2995,47 +3177,57 @@
       <c r="M69" s="45"/>
       <c r="N69" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" s="42"/>
       <c r="P69" s="43"/>
       <c r="Q69" s="43"/>
     </row>
-    <row r="70" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="54">
+    <row r="70" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="59">
         <v>3</v>
       </c>
       <c r="B70" s="39">
-        <v>43202</v>
-      </c>
-      <c r="C70" s="10"/>
+        <v>43201</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="13"/>
+      <c r="H70" s="13">
+        <v>4</v>
+      </c>
       <c r="I70" s="13"/>
-      <c r="J70" s="8"/>
+      <c r="J70" s="8">
+        <v>3.5</v>
+      </c>
       <c r="K70" s="8"/>
       <c r="L70" s="45"/>
       <c r="M70" s="45"/>
       <c r="N70" s="4">
-        <f t="shared" si="5"/>
+        <f>SUM(K70,M70,I70,G70,E70)</f>
         <v>0</v>
       </c>
       <c r="O70" s="42"/>
       <c r="P70" s="43"/>
       <c r="Q70" s="43"/>
     </row>
-    <row r="71" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="54">
+    <row r="71" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="59">
         <v>3</v>
       </c>
       <c r="B71" s="39">
-        <v>43202</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="16"/>
+        <v>43201</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="16">
+        <v>2</v>
+      </c>
       <c r="E71" s="16"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -3046,21 +3238,20 @@
       <c r="L71" s="45"/>
       <c r="M71" s="45"/>
       <c r="N71" s="4">
-        <f t="shared" si="5"/>
+        <f>SUM(M71,K71,I71,G71,E71)</f>
         <v>0</v>
       </c>
       <c r="O71" s="42"/>
       <c r="P71" s="43"/>
       <c r="Q71" s="43"/>
     </row>
-    <row r="72" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="54">
         <v>3</v>
       </c>
       <c r="B72" s="39">
-        <v>43202</v>
-      </c>
-      <c r="C72" s="10"/>
+        <v>43201</v>
+      </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="8"/>
@@ -3079,14 +3270,16 @@
       <c r="P72" s="43"/>
       <c r="Q72" s="43"/>
     </row>
-    <row r="73" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="54">
         <v>3</v>
       </c>
-      <c r="B73" s="39">
+      <c r="B73" s="55">
         <v>43202</v>
       </c>
-      <c r="C73" s="10"/>
+      <c r="C73" s="56" t="s">
+        <v>28</v>
+      </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="8"/>
@@ -3105,7 +3298,7 @@
       <c r="P73" s="43"/>
       <c r="Q73" s="43"/>
     </row>
-    <row r="74" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="54">
         <v>3</v>
       </c>
@@ -3131,7 +3324,7 @@
       <c r="P74" s="43"/>
       <c r="Q74" s="43"/>
     </row>
-    <row r="75" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="54">
         <v>3</v>
       </c>
@@ -3157,16 +3350,14 @@
       <c r="P75" s="43"/>
       <c r="Q75" s="43"/>
     </row>
-    <row r="76" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="54">
         <v>3</v>
       </c>
-      <c r="B76" s="55">
-        <v>43203</v>
-      </c>
-      <c r="C76" s="56" t="s">
-        <v>29</v>
-      </c>
+      <c r="B76" s="39">
+        <v>43202</v>
+      </c>
+      <c r="C76" s="10"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="8"/>
@@ -3185,34 +3376,24 @@
       <c r="P76" s="43"/>
       <c r="Q76" s="43"/>
     </row>
-    <row r="77" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="54">
         <v>3</v>
       </c>
       <c r="B77" s="39">
-        <v>43203</v>
+        <v>43202</v>
       </c>
       <c r="C77" s="10"/>
-      <c r="D77" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="17"/>
-      <c r="F77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" s="14"/>
-      <c r="J77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="M77" s="46"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="45"/>
       <c r="N77" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3221,126 +3402,240 @@
       <c r="P77" s="43"/>
       <c r="Q77" s="43"/>
     </row>
-    <row r="78" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="32">
-        <f>SUM(D52:D77)</f>
-        <v>0</v>
-      </c>
-      <c r="E78" s="32">
-        <f t="shared" ref="E78:N78" si="6">SUM(E52:E77)</f>
-        <v>0</v>
-      </c>
-      <c r="F78" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L78" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M78" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N78" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O78" s="33"/>
+    <row r="78" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="54">
+        <v>3</v>
+      </c>
+      <c r="B78" s="39">
+        <v>43202</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="42"/>
       <c r="P78" s="49"/>
       <c r="Q78" s="49"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="24"/>
-    </row>
-    <row r="80" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="37">
-        <f>(D22+D51+D78)</f>
-        <v>20.5</v>
-      </c>
-      <c r="F80" s="37">
-        <f t="shared" ref="F80:N80" si="7">SUM(F22+F51+F78)</f>
-        <v>21.5</v>
-      </c>
-      <c r="G80" s="37">
-        <f t="shared" si="7"/>
-        <v>17.5</v>
-      </c>
-      <c r="H80" s="37">
-        <f t="shared" si="7"/>
-        <v>23.5</v>
-      </c>
-      <c r="I80" s="37">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="J80" s="37">
-        <f t="shared" si="7"/>
-        <v>19.5</v>
-      </c>
-      <c r="K80" s="37">
-        <f t="shared" si="7"/>
-        <v>15.5</v>
-      </c>
-      <c r="L80" s="37">
-        <f t="shared" si="7"/>
-        <v>23.5</v>
-      </c>
-      <c r="M80" s="37">
-        <f t="shared" si="7"/>
-        <v>12.5</v>
-      </c>
-      <c r="N80" s="37">
-        <f t="shared" si="7"/>
-        <v>72</v>
-      </c>
-      <c r="O80" s="9"/>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="54">
+        <v>3</v>
+      </c>
+      <c r="B79" s="39">
+        <v>43202</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="42"/>
+    </row>
+    <row r="80" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="54">
+        <v>3</v>
+      </c>
+      <c r="B80" s="55">
+        <v>43203</v>
+      </c>
+      <c r="C80" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="42"/>
       <c r="P80" s="50"/>
       <c r="Q80" s="50"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="54">
+        <v>3</v>
+      </c>
+      <c r="B81" s="39">
+        <v>43203</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="14"/>
+      <c r="J81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="3"/>
+      <c r="L81" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="M81" s="46"/>
+      <c r="N81" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O81" s="42"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="31"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="32">
+        <f>SUM(D53:D81)</f>
+        <v>11</v>
+      </c>
+      <c r="E82" s="32">
+        <f>SUM(E53:E81)</f>
+        <v>8.5</v>
+      </c>
+      <c r="F82" s="32">
+        <f>SUM(F53:F81)</f>
+        <v>10</v>
+      </c>
+      <c r="G82" s="32">
+        <f>SUM(G53:G81)</f>
+        <v>8</v>
+      </c>
+      <c r="H82" s="32">
+        <f>SUM(H53:H81)</f>
+        <v>13.5</v>
+      </c>
+      <c r="I82" s="32">
+        <f>SUM(I53:I81)</f>
+        <v>10</v>
+      </c>
+      <c r="J82" s="32">
+        <f>SUM(J53:J81)</f>
+        <v>13</v>
+      </c>
+      <c r="K82" s="32">
+        <f>SUM(K53:K81)</f>
+        <v>15</v>
+      </c>
+      <c r="L82" s="32">
+        <f>SUM(L53:L81)</f>
+        <v>2</v>
+      </c>
+      <c r="M82" s="32">
+        <f>SUM(M53:M81)</f>
+        <v>3</v>
+      </c>
+      <c r="N82" s="32">
+        <f>SUM(N53:N81)</f>
+        <v>44.5</v>
+      </c>
+      <c r="O82" s="33"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="24"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="37">
+        <f>SUM(D53:D81,D23:D51,D5:D21)</f>
+        <v>33.5</v>
+      </c>
+      <c r="E84" s="37">
+        <f>(D22+D52+D82)</f>
+        <v>33.5</v>
+      </c>
+      <c r="F84" s="37">
+        <f>SUM(F22+F52+F82)</f>
+        <v>34.5</v>
+      </c>
+      <c r="G84" s="37">
+        <f>SUM(G22+G52+G82)</f>
+        <v>35.5</v>
+      </c>
+      <c r="H84" s="37">
+        <f>SUM(H22+H52+H82)</f>
+        <v>37</v>
+      </c>
+      <c r="I84" s="37">
+        <f>SUM(I22+I52+I82)</f>
+        <v>30</v>
+      </c>
+      <c r="J84" s="37">
+        <f>SUM(J22+J52+J82)</f>
+        <v>37.5</v>
+      </c>
+      <c r="K84" s="37">
+        <f>SUM(K22+K52+K82)</f>
+        <v>40.5</v>
+      </c>
+      <c r="L84" s="37">
+        <f>SUM(L22+L52+L82)</f>
+        <v>27.5</v>
+      </c>
+      <c r="M84" s="37">
+        <f>SUM(M22+M52+M82)</f>
+        <v>29.5</v>
+      </c>
+      <c r="N84" s="37">
+        <f>SUM(N22+N52+N82)</f>
+        <v>173</v>
+      </c>
+      <c r="O84" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3358,14 +3653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3374,20 +3669,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">9999</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Formulier</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF6A123F2EA08A4689FB755E24CCA508" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c708888c9e91d892cee57178770b6705">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -3548,33 +3838,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">9999</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Formulier</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3365A2B0-CBB1-43B0-966D-56CC876D23EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3592,10 +3878,19 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>